--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_11_28.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_11_28.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2018092.291438583</v>
+        <v>2015715.664491218</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283184</v>
+        <v>416855.1052283186</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9938345.326868372</v>
+        <v>9938345.326868374</v>
       </c>
     </row>
     <row r="11">
@@ -659,7 +659,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>72.94942429078201</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -668,16 +668,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>67.99028908615141</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247049</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -722,10 +722,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +756,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -814,19 +814,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -835,7 +835,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,28 +862,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>226.4477061955547</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>185.5217629586822</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -896,10 +896,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -908,13 +908,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>11.54770277295399</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H5" t="n">
-        <v>207.0157802018344</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247049</v>
+        <v>56.70882917873372</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,16 +944,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -993,7 +993,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1051,10 +1051,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -1063,13 +1063,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>96.97633795874984</v>
       </c>
       <c r="S7" t="n">
         <v>194.6624603617375</v>
@@ -1108,16 +1108,16 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>54.99283228938585</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1130,19 +1130,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>11.54770277295399</v>
@@ -1151,7 +1151,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,22 +1181,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>98.23021146256048</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>196.6997841156786</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1288,25 +1288,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>50.98074812542791</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1342,16 +1342,16 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>218.6880288329276</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1370,7 +1370,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710079</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1382,7 +1382,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1528,7 +1528,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>120.7871326503955</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1543,10 +1543,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1588,13 +1588,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>237.0874140756659</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187877</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>121.8000472740351</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1828,10 +1828,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>193.7763380130617</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187863</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1907,7 +1907,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.7311006784699</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -2008,7 +2008,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>99.97427419833861</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2017,10 +2017,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,7 +2050,7 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
-        <v>59.44001103519416</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2138,7 +2138,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701355</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2239,7 +2239,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>28.75188085812055</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2248,13 +2248,13 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>21.90286287505242</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856552</v>
@@ -2473,13 +2473,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>122.6028762599955</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>113.6427030833208</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2494,7 +2494,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2533,7 +2533,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2558,7 +2558,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -2719,19 +2719,19 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>27.0291980517616</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>3.006892987834567</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2953,16 +2953,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
@@ -3004,7 +3004,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>228.9553704673023</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3016,7 +3016,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>31.83025205764035</v>
       </c>
     </row>
     <row r="32">
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3184,13 +3184,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>139.511541534052</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3199,13 +3199,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,10 +3232,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
-        <v>42.5313457611372</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3314,13 +3314,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3424,22 +3424,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>108.2950343703266</v>
+        <v>121.8000472740351</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3551,13 +3551,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3664,7 +3664,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>1.799772605716619</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3673,13 +3673,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3901,22 +3901,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>20.88994825141629</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3955,7 +3955,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>194.9085394018857</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -4141,19 +4141,19 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>62.6472505928856</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4304,19 +4304,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>901.3425442071332</v>
+        <v>918.0161179218651</v>
       </c>
       <c r="C2" t="n">
-        <v>901.3425442071332</v>
+        <v>844.329830759459</v>
       </c>
       <c r="D2" t="n">
-        <v>901.3425442071332</v>
+        <v>844.329830759459</v>
       </c>
       <c r="E2" t="n">
-        <v>901.3425442071332</v>
+        <v>844.329830759459</v>
       </c>
       <c r="F2" t="n">
-        <v>490.3566394175256</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G2" t="n">
         <v>421.6795797345444</v>
@@ -4325,19 +4325,19 @@
         <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362822</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816088</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872924</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N2" t="n">
         <v>1656.671415230817</v>
@@ -4370,10 +4370,10 @@
         <v>1291.481876182945</v>
       </c>
       <c r="X2" t="n">
-        <v>1291.481876182945</v>
+        <v>918.0161179218651</v>
       </c>
       <c r="Y2" t="n">
-        <v>901.3425442071332</v>
+        <v>918.0161179218651</v>
       </c>
     </row>
     <row r="3">
@@ -4401,34 +4401,34 @@
         <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057878</v>
       </c>
       <c r="I3" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500113</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K3" t="n">
-        <v>298.3188265310613</v>
+        <v>684.9695361605189</v>
       </c>
       <c r="L3" t="n">
-        <v>593.0223835625329</v>
+        <v>1092.885047004312</v>
       </c>
       <c r="M3" t="n">
-        <v>956.284402521753</v>
+        <v>1456.147065963532</v>
       </c>
       <c r="N3" t="n">
-        <v>1343.569531118698</v>
+        <v>1843.432194560477</v>
       </c>
       <c r="O3" t="n">
-        <v>1676.586023648284</v>
+        <v>2175.502629736639</v>
       </c>
       <c r="P3" t="n">
-        <v>2239.046898434119</v>
+        <v>2422.685363568936</v>
       </c>
       <c r="Q3" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R3" t="n">
         <v>2562.339328400155</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>370.2996089082458</v>
+        <v>303.9918807365201</v>
       </c>
       <c r="C4" t="n">
-        <v>201.3634259803388</v>
+        <v>303.9918807365201</v>
       </c>
       <c r="D4" t="n">
-        <v>51.24678656800311</v>
+        <v>303.9918807365201</v>
       </c>
       <c r="E4" t="n">
-        <v>51.24678656800311</v>
+        <v>303.9918807365201</v>
       </c>
       <c r="F4" t="n">
-        <v>51.24678656800311</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="G4" t="n">
-        <v>51.24678656800311</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="H4" t="n">
-        <v>51.24678656800311</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="I4" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312198</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q4" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1533.862713590079</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S4" t="n">
-        <v>1337.23396574994</v>
+        <v>1439.817372234359</v>
       </c>
       <c r="T4" t="n">
-        <v>1337.23396574994</v>
+        <v>1216.838891429094</v>
       </c>
       <c r="U4" t="n">
-        <v>1337.23396574994</v>
+        <v>927.7205539329318</v>
       </c>
       <c r="V4" t="n">
-        <v>1108.498908986754</v>
+        <v>673.036065727045</v>
       </c>
       <c r="W4" t="n">
-        <v>819.0817389497932</v>
+        <v>673.036065727045</v>
       </c>
       <c r="X4" t="n">
-        <v>591.0921880517759</v>
+        <v>485.6403455667598</v>
       </c>
       <c r="Y4" t="n">
-        <v>370.2996089082458</v>
+        <v>485.6403455667598</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1089.391082610342</v>
+        <v>1589.988596769088</v>
       </c>
       <c r="C5" t="n">
-        <v>1089.391082610342</v>
+        <v>1221.026079828676</v>
       </c>
       <c r="D5" t="n">
-        <v>731.1253840035911</v>
+        <v>1221.026079828676</v>
       </c>
       <c r="E5" t="n">
-        <v>345.3371314053468</v>
+        <v>835.237827230432</v>
       </c>
       <c r="F5" t="n">
-        <v>338.3916306561434</v>
+        <v>828.2923264812285</v>
       </c>
       <c r="G5" t="n">
-        <v>326.7272844208363</v>
+        <v>412.5875762055174</v>
       </c>
       <c r="H5" t="n">
-        <v>117.6204357321147</v>
+        <v>108.5284322030877</v>
       </c>
       <c r="I5" t="n">
-        <v>51.24678656800308</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362815</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816079</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L5" t="n">
-        <v>795.755353087291</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N5" t="n">
-        <v>1656.671415230816</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O5" t="n">
-        <v>2055.228484740839</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P5" t="n">
-        <v>2360.886721764996</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q5" t="n">
-        <v>2542.250581723849</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R5" t="n">
-        <v>2562.339328400154</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2437.640120926624</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T5" t="n">
-        <v>2437.640120926624</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="U5" t="n">
-        <v>2184.059060190804</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="V5" t="n">
-        <v>1852.996172847233</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="W5" t="n">
-        <v>1852.996172847233</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="X5" t="n">
-        <v>1479.530414586153</v>
+        <v>1980.1279287449</v>
       </c>
       <c r="Y5" t="n">
-        <v>1089.391082610342</v>
+        <v>1589.988596769088</v>
       </c>
     </row>
     <row r="6">
@@ -4638,34 +4638,34 @@
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057898</v>
       </c>
       <c r="I6" t="n">
-        <v>51.24678656800308</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J6" t="n">
-        <v>238.427330237016</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K6" t="n">
-        <v>423.148951518066</v>
+        <v>423.1489515180662</v>
       </c>
       <c r="L6" t="n">
-        <v>717.8525085495376</v>
+        <v>717.8525085495379</v>
       </c>
       <c r="M6" t="n">
-        <v>1352.031492328576</v>
+        <v>1081.114527508758</v>
       </c>
       <c r="N6" t="n">
-        <v>1739.316620925521</v>
+        <v>1468.399656105703</v>
       </c>
       <c r="O6" t="n">
-        <v>2071.387056101683</v>
+        <v>2102.578639884742</v>
       </c>
       <c r="P6" t="n">
-        <v>2318.56978993398</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q6" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R6" t="n">
         <v>2562.339328400155</v>
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>981.8280128167644</v>
+        <v>349.2765195627319</v>
       </c>
       <c r="C7" t="n">
-        <v>812.8918298888575</v>
+        <v>349.2765195627319</v>
       </c>
       <c r="D7" t="n">
-        <v>662.7751904765217</v>
+        <v>199.1598801503962</v>
       </c>
       <c r="E7" t="n">
-        <v>514.8620968941286</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="F7" t="n">
-        <v>367.9721493962183</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="G7" t="n">
-        <v>199.9856847044969</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H7" t="n">
-        <v>51.24678656800308</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I7" t="n">
-        <v>51.24678656800308</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312195</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q7" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1636.446120074497</v>
+        <v>1538.490223146467</v>
       </c>
       <c r="S7" t="n">
-        <v>1439.817372234358</v>
+        <v>1341.861475306328</v>
       </c>
       <c r="T7" t="n">
-        <v>1439.817372234358</v>
+        <v>1341.861475306328</v>
       </c>
       <c r="U7" t="n">
-        <v>1439.817372234358</v>
+        <v>1052.743137810166</v>
       </c>
       <c r="V7" t="n">
-        <v>1439.817372234358</v>
+        <v>798.0586496042794</v>
       </c>
       <c r="W7" t="n">
-        <v>1439.817372234358</v>
+        <v>798.0586496042794</v>
       </c>
       <c r="X7" t="n">
-        <v>1384.269056790534</v>
+        <v>570.069098706262</v>
       </c>
       <c r="Y7" t="n">
-        <v>1163.476477647004</v>
+        <v>349.2765195627319</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4778,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1586.913505738324</v>
+        <v>890.9810522552812</v>
       </c>
       <c r="C8" t="n">
-        <v>1217.950988797912</v>
+        <v>522.0185353148695</v>
       </c>
       <c r="D8" t="n">
-        <v>859.685290191162</v>
+        <v>522.0185353148695</v>
       </c>
       <c r="E8" t="n">
-        <v>473.8970375929177</v>
+        <v>136.2302827166252</v>
       </c>
       <c r="F8" t="n">
-        <v>62.91113280331017</v>
+        <v>129.2847819674218</v>
       </c>
       <c r="G8" t="n">
-        <v>51.2467865680031</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H8" t="n">
-        <v>51.2467865680031</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I8" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J8" t="n">
         <v>187.5281822362817</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816086</v>
       </c>
       <c r="L8" t="n">
-        <v>795.755353087292</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M8" t="n">
         <v>1220.470313923562</v>
@@ -4829,25 +4829,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T8" t="n">
-        <v>2562.339328400155</v>
+        <v>2338.417685105857</v>
       </c>
       <c r="U8" t="n">
-        <v>2562.339328400155</v>
+        <v>2338.417685105857</v>
       </c>
       <c r="V8" t="n">
-        <v>2562.339328400155</v>
+        <v>2007.354797762287</v>
       </c>
       <c r="W8" t="n">
-        <v>2562.339328400155</v>
+        <v>1654.586142492173</v>
       </c>
       <c r="X8" t="n">
-        <v>2363.652677778257</v>
+        <v>1281.120384231093</v>
       </c>
       <c r="Y8" t="n">
-        <v>1973.513345802446</v>
+        <v>890.9810522552812</v>
       </c>
     </row>
     <row r="9">
@@ -4875,31 +4875,31 @@
         <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057902</v>
       </c>
       <c r="I9" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J9" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K9" t="n">
-        <v>614.5430248380227</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L9" t="n">
-        <v>909.2465818694943</v>
+        <v>593.0223835625329</v>
       </c>
       <c r="M9" t="n">
-        <v>1272.508600828714</v>
+        <v>956.284402521753</v>
       </c>
       <c r="N9" t="n">
-        <v>1659.79372942566</v>
+        <v>1590.463386300792</v>
       </c>
       <c r="O9" t="n">
-        <v>1991.864164601821</v>
+        <v>1922.533821476953</v>
       </c>
       <c r="P9" t="n">
-        <v>2239.046898434118</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q9" t="n">
         <v>2562.339328400155</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>716.5983551657491</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="C10" t="n">
-        <v>547.6621722378422</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="D10" t="n">
-        <v>397.5455328255065</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="E10" t="n">
-        <v>249.6324392431134</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="F10" t="n">
-        <v>102.742491745203</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="G10" t="n">
-        <v>51.2467865680031</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="H10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312196</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K10" t="n">
         <v>248.4064713020475</v>
@@ -4990,22 +4990,22 @@
         <v>1636.446120074497</v>
       </c>
       <c r="T10" t="n">
-        <v>1636.446120074497</v>
+        <v>1413.467639269232</v>
       </c>
       <c r="U10" t="n">
-        <v>1636.446120074497</v>
+        <v>1124.34930177307</v>
       </c>
       <c r="V10" t="n">
-        <v>1636.446120074497</v>
+        <v>869.6648135671834</v>
       </c>
       <c r="W10" t="n">
-        <v>1347.028950037536</v>
+        <v>648.7678147460443</v>
       </c>
       <c r="X10" t="n">
-        <v>1119.039399139519</v>
+        <v>420.778263848027</v>
       </c>
       <c r="Y10" t="n">
-        <v>898.2468199959889</v>
+        <v>199.9856847044969</v>
       </c>
     </row>
     <row r="11">
@@ -5021,28 +5021,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5051,37 +5051,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,34 +5112,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516144</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L12" t="n">
-        <v>1074.481071167373</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="M12" t="n">
-        <v>1671.859558793925</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N12" t="n">
-        <v>2299.457522348532</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O12" t="n">
-        <v>2319.799627685893</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>784.5811134804959</v>
+        <v>513.8536007400699</v>
       </c>
       <c r="C13" t="n">
-        <v>615.644930552589</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D13" t="n">
-        <v>465.5282911402533</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E13" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F13" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782958</v>
@@ -5218,31 +5218,31 @@
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832661</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W13" t="n">
-        <v>1194.219129208753</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="X13" t="n">
-        <v>966.2295783107356</v>
+        <v>916.2946447138397</v>
       </c>
       <c r="Y13" t="n">
-        <v>966.2295783107356</v>
+        <v>695.5020655703096</v>
       </c>
     </row>
     <row r="14">
@@ -5255,16 +5255,16 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
@@ -5285,40 +5285,40 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797189</v>
+        <v>315.9123021921476</v>
       </c>
       <c r="L15" t="n">
-        <v>589.1422692637307</v>
+        <v>315.9123021921476</v>
       </c>
       <c r="M15" t="n">
-        <v>1186.520756890282</v>
+        <v>913.2907898186995</v>
       </c>
       <c r="N15" t="n">
-        <v>1577.52840832642</v>
+        <v>1540.888753373306</v>
       </c>
       <c r="O15" t="n">
-        <v>2129.438138565707</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>948.5505208511905</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C16" t="n">
-        <v>779.6143379232836</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232836</v>
+        <v>363.7369613277359</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408905</v>
+        <v>363.7369613277359</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>216.8470138298256</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>216.8470138298256</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782958</v>
@@ -5476,10 +5476,10 @@
         <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>1144.284195611859</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y16" t="n">
-        <v>948.5505208511905</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="18">
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,34 +5586,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516144</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L18" t="n">
-        <v>1074.481071167373</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M18" t="n">
-        <v>1671.859558793925</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="N18" t="n">
-        <v>2299.457522348532</v>
+        <v>1550.665004989558</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>636.6680198981028</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C19" t="n">
-        <v>467.7318369701959</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D19" t="n">
-        <v>317.6151975578601</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="E19" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F19" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782958</v>
@@ -5698,25 +5698,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2319.876964645598</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>2100.27549966854</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1811.200273012738</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1556.515784806851</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1267.09861476989</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>1039.109063871873</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y19" t="n">
-        <v>818.3164847283425</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="20">
@@ -5732,22 +5732,22 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111716</v>
@@ -5759,40 +5759,40 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,31 +5823,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516144</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L21" t="n">
-        <v>680.0291294438171</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M21" t="n">
-        <v>680.0291294438171</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>1652.717886400351</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2204.627616639638</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q21" t="n">
         <v>2516.421633107662</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400699</v>
       </c>
       <c r="C22" t="n">
-        <v>484.8112968429802</v>
+        <v>344.917417812163</v>
       </c>
       <c r="D22" t="n">
-        <v>484.8112968429802</v>
+        <v>344.917417812163</v>
       </c>
       <c r="E22" t="n">
-        <v>484.8112968429802</v>
+        <v>344.917417812163</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429802</v>
+        <v>198.0274703142526</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578601</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782958</v>
@@ -5917,43 +5917,43 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570816</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832661</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138397</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703096</v>
       </c>
     </row>
     <row r="23">
@@ -5966,31 +5966,31 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479719</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -5999,37 +5999,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6051,7 +6051,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,34 +6060,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797189</v>
+        <v>150.8995423128888</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797189</v>
+        <v>484.8243144841094</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797189</v>
+        <v>980.1499206998682</v>
       </c>
       <c r="M24" t="n">
-        <v>691.1951506745238</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N24" t="n">
-        <v>1318.793114229131</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O24" t="n">
-        <v>1870.702844468418</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P24" t="n">
-        <v>2294.325993963486</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2527.587654338369</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188008</v>
+        <v>768.5380889459586</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908938</v>
+        <v>599.6019060180517</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782958</v>
@@ -6181,16 +6181,16 @@
         <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.70136564882</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611859</v>
+        <v>1398.968683817746</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138415</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703114</v>
+        <v>950.1865537761984</v>
       </c>
     </row>
     <row r="26">
@@ -6215,22 +6215,22 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
         <v>2206.558663014778</v>
@@ -6239,13 +6239,13 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6300,31 +6300,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167373</v>
+        <v>943.5102657467545</v>
       </c>
       <c r="M27" t="n">
-        <v>1671.859558793925</v>
+        <v>1540.888753373306</v>
       </c>
       <c r="N27" t="n">
-        <v>2299.457522348532</v>
+        <v>1540.888753373306</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>580.8993044876693</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C28" t="n">
-        <v>411.9631215597624</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D28" t="n">
-        <v>411.9631215597624</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E28" t="n">
-        <v>264.0500279773693</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="F28" t="n">
-        <v>264.0500279773693</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G28" t="n">
-        <v>96.85392869224921</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6406,28 +6406,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>983.3403484614391</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y28" t="n">
-        <v>762.547769317909</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="29">
@@ -6437,52 +6437,52 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6494,19 +6494,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6546,22 +6546,22 @@
         <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>710.248605371872</v>
       </c>
       <c r="M30" t="n">
-        <v>1671.859558793925</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N30" t="n">
-        <v>2299.457522348532</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,19 +6595,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>571.6607764188008</v>
+        <v>702.4944101284095</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908938</v>
+        <v>533.5582272005026</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908938</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908938</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908938</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G31" t="n">
         <v>235.5284942057738</v>
@@ -6652,19 +6652,19 @@
         <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y31" t="n">
-        <v>753.3092412490405</v>
+        <v>884.1428749586493</v>
       </c>
     </row>
     <row r="32">
@@ -6686,40 +6686,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6774,31 +6774,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J33" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>95.58405025273903</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L33" t="n">
-        <v>119.290296770379</v>
+        <v>634.5603720565524</v>
       </c>
       <c r="M33" t="n">
-        <v>716.6687843969308</v>
+        <v>1231.938859683104</v>
       </c>
       <c r="N33" t="n">
-        <v>1344.266747951538</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O33" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>653.7474797708871</v>
+        <v>554.5813165460164</v>
       </c>
       <c r="C34" t="n">
-        <v>484.8112968429803</v>
+        <v>385.6451336181095</v>
       </c>
       <c r="D34" t="n">
-        <v>484.8112968429803</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="E34" t="n">
-        <v>484.8112968429803</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429803</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2336.956424518383</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>2117.354959541324</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W34" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y34" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="35">
@@ -6923,22 +6923,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332386</v>
@@ -6953,31 +6953,31 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7008,28 +7008,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L36" t="n">
-        <v>245.2306927803937</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438176</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P36" t="n">
         <v>2283.159972732779</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121643</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121643</v>
+        <v>363.7369613277359</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121643</v>
+        <v>363.7369613277359</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121643</v>
+        <v>216.8470138298256</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="38">
@@ -7148,34 +7148,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7184,13 +7184,13 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
         <v>4562.265728852255</v>
@@ -7205,19 +7205,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7254,25 +7254,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797187</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438176</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>1550.665004989558</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2102.574735228845</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2526.197884723913</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2526.197884723913</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121643</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121643</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121643</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="41">
@@ -7385,46 +7385,46 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7442,19 +7442,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>245.2306927803937</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>245.2306927803937</v>
+        <v>671.2000270096656</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438176</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908939</v>
+        <v>323.8164599824514</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908939</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V43" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W43" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X43" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y43" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="44">
@@ -7634,34 +7634,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7722,28 +7722,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="L45" t="n">
-        <v>245.2306927803937</v>
+        <v>740.5562989961526</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>1965.532750177311</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q45" t="n">
         <v>2516.421633107662</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>762.547769317909</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121643</v>
+        <v>593.6115863900021</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121643</v>
+        <v>593.6115863900021</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121643</v>
+        <v>445.698492807609</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121643</v>
+        <v>298.8085453096986</v>
       </c>
       <c r="G46" t="n">
-        <v>177.7213185270443</v>
+        <v>298.8085453096986</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>157.0967141518967</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>762.547769317909</v>
       </c>
     </row>
   </sheetData>
@@ -8055,13 +8055,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>114.3555089013344</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8070,16 +8070,16 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0.9556134883071081</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>20.93778120154991</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8301,22 +8301,22 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>273.6534998179981</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>305.1601501039157</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>98.24448441976784</v>
       </c>
       <c r="Q6" t="n">
-        <v>105.1672460959153</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8529,10 +8529,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>193.327346787835</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8541,16 +8541,16 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>249.387732507165</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>280.1079373569279</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>20.93778120154991</v>
@@ -8699,7 +8699,7 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>-3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
@@ -9176,7 +9176,7 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>-1.8188291052212e-13</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -9407,7 +9407,7 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>-4.743714416215245e-13</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -9422,7 +9422,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>3.694822225952521e-13</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9647,7 +9647,7 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>-2.664766248652818e-14</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
@@ -9881,7 +9881,7 @@
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>-1.591615728102624e-12</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
@@ -10133,7 +10133,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>-5.400124791776761e-13</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -11066,7 +11066,7 @@
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
@@ -23416,7 +23416,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>46.45968844823237</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23428,13 +23428,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922675</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23476,13 +23476,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>49.43558426092511</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23650,28 +23650,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>18.49466557218872</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23716,10 +23716,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>24.80831533903313</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23896,7 +23896,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>46.45968844823057</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23905,10 +23905,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,7 +23938,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>121.5862749664504</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24127,7 +24127,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>138.4949402405073</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24136,13 +24136,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>143.6212754172164</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24361,13 +24361,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>57.22910392194177</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>34.97276993489153</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24382,7 +24382,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24421,7 +24421,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24446,7 +24446,7 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -24607,19 +24607,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>119.4047645948076</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>137.2878198583893</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24841,16 +24841,16 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -24892,7 +24892,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>57.22910392194188</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>186.7544012944545</v>
       </c>
     </row>
     <row r="32">
@@ -25072,13 +25072,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>40.32043864788525</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25087,13 +25087,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25123,7 +25123,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>138.4949402405074</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25312,25 +25312,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>57.2291039219422</v>
+        <v>43.72409101823371</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25552,7 +25552,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>146.8157004124957</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25561,13 +25561,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25789,22 +25789,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>127.7255247667961</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25843,7 +25843,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26020,7 +26020,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -26029,19 +26029,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>18.61858572567992</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>854213.313289642</v>
+        <v>854213.3132896419</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>854213.313289642</v>
+        <v>854213.3132896419</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>854213.3132896421</v>
+        <v>854213.3132896419</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>854213.3132896419</v>
+        <v>854213.3132896421</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>854213.313289642</v>
+        <v>854213.3132896419</v>
       </c>
     </row>
     <row r="11">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>854213.3132896419</v>
+        <v>854213.313289642</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>854213.3132896419</v>
+        <v>854213.313289642</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>854213.313289642</v>
+        <v>854213.3132896419</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>854213.3132896419</v>
+        <v>854213.313289642</v>
       </c>
     </row>
   </sheetData>
@@ -26317,16 +26317,16 @@
         <v>574729.2389049984</v>
       </c>
       <c r="D2" t="n">
-        <v>574729.2389049983</v>
+        <v>574729.2389049985</v>
       </c>
       <c r="E2" t="n">
-        <v>565002.6197830045</v>
+        <v>565002.6197830047</v>
       </c>
       <c r="F2" t="n">
         <v>565002.6197830046</v>
       </c>
       <c r="G2" t="n">
-        <v>565002.6197830045</v>
+        <v>565002.6197830046</v>
       </c>
       <c r="H2" t="n">
         <v>565002.6197830045</v>
@@ -26335,25 +26335,25 @@
         <v>565002.6197830045</v>
       </c>
       <c r="J2" t="n">
-        <v>565002.6197830043</v>
+        <v>565002.6197830046</v>
       </c>
       <c r="K2" t="n">
+        <v>565002.6197830046</v>
+      </c>
+      <c r="L2" t="n">
+        <v>565002.6197830047</v>
+      </c>
+      <c r="M2" t="n">
         <v>565002.6197830045</v>
       </c>
-      <c r="L2" t="n">
+      <c r="N2" t="n">
         <v>565002.6197830045</v>
       </c>
-      <c r="M2" t="n">
+      <c r="O2" t="n">
         <v>565002.6197830046</v>
       </c>
-      <c r="N2" t="n">
-        <v>565002.6197830046</v>
-      </c>
-      <c r="O2" t="n">
-        <v>565002.6197830045</v>
-      </c>
       <c r="P2" t="n">
-        <v>565002.6197830045</v>
+        <v>565002.6197830047</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.783575919</v>
+        <v>1114751.78357592</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245462</v>
+        <v>507485.4416245461</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>133113.8635467444</v>
+        <v>133113.8635467443</v>
       </c>
       <c r="C4" t="n">
         <v>133113.8635467444</v>
@@ -26424,40 +26424,40 @@
         <v>133113.8635467443</v>
       </c>
       <c r="E4" t="n">
-        <v>7507.36846171966</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="F4" t="n">
-        <v>7507.368461719618</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="G4" t="n">
-        <v>7507.368461719627</v>
+        <v>7507.36846171965</v>
       </c>
       <c r="H4" t="n">
-        <v>7507.36846171965</v>
+        <v>7507.368461719632</v>
       </c>
       <c r="I4" t="n">
+        <v>7507.36846171964</v>
+      </c>
+      <c r="J4" t="n">
         <v>7507.368461719668</v>
       </c>
-      <c r="J4" t="n">
-        <v>7507.368461719632</v>
-      </c>
       <c r="K4" t="n">
+        <v>7507.368461719656</v>
+      </c>
+      <c r="L4" t="n">
+        <v>7507.368461719668</v>
+      </c>
+      <c r="M4" t="n">
         <v>7507.368461719667</v>
       </c>
-      <c r="L4" t="n">
+      <c r="N4" t="n">
+        <v>7507.368461719647</v>
+      </c>
+      <c r="O4" t="n">
         <v>7507.368461719667</v>
       </c>
-      <c r="M4" t="n">
-        <v>7507.368461719718</v>
-      </c>
-      <c r="N4" t="n">
-        <v>7507.368461719678</v>
-      </c>
-      <c r="O4" t="n">
-        <v>7507.368461719677</v>
-      </c>
       <c r="P4" t="n">
-        <v>7507.368461719667</v>
+        <v>7507.368461719668</v>
       </c>
     </row>
     <row r="5">
@@ -26470,7 +26470,7 @@
         <v>92937.7724398447</v>
       </c>
       <c r="C5" t="n">
-        <v>92937.77243984469</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="D5" t="n">
         <v>92937.7724398447</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-766074.1806575098</v>
+        <v>-766074.1806575101</v>
       </c>
       <c r="C6" t="n">
-        <v>348677.6029184093</v>
+        <v>348677.6029184094</v>
       </c>
       <c r="D6" t="n">
-        <v>348677.6029184093</v>
+        <v>348677.6029184097</v>
       </c>
       <c r="E6" t="n">
-        <v>-51112.72012716846</v>
+        <v>-51147.4580526038</v>
       </c>
       <c r="F6" t="n">
-        <v>456372.7214973779</v>
+        <v>456337.9835719421</v>
       </c>
       <c r="G6" t="n">
-        <v>456372.7214973778</v>
+        <v>456337.9835719422</v>
       </c>
       <c r="H6" t="n">
-        <v>456372.7214973778</v>
+        <v>456337.9835719421</v>
       </c>
       <c r="I6" t="n">
-        <v>456372.7214973777</v>
+        <v>456337.9835719421</v>
       </c>
       <c r="J6" t="n">
-        <v>288767.543687395</v>
+        <v>288732.8057619596</v>
       </c>
       <c r="K6" t="n">
-        <v>456372.7214973777</v>
+        <v>456337.9835719422</v>
       </c>
       <c r="L6" t="n">
-        <v>456372.7214973778</v>
+        <v>456337.9835719422</v>
       </c>
       <c r="M6" t="n">
-        <v>323765.4277684512</v>
+        <v>323730.6898430153</v>
       </c>
       <c r="N6" t="n">
-        <v>456372.7214973778</v>
+        <v>456337.9835719421</v>
       </c>
       <c r="O6" t="n">
-        <v>456372.7214973777</v>
+        <v>456337.9835719421</v>
       </c>
       <c r="P6" t="n">
-        <v>456372.7214973777</v>
+        <v>456337.9835719422</v>
       </c>
     </row>
   </sheetData>
@@ -26735,10 +26735,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="D3" t="n">
         <v>934.0648921175391</v>
@@ -26787,28 +26787,28 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>640.5848321000387</v>
+      </c>
+      <c r="C4" t="n">
+        <v>640.5848321000387</v>
+      </c>
+      <c r="D4" t="n">
         <v>640.5848321000389</v>
       </c>
-      <c r="C4" t="n">
-        <v>640.5848321000385</v>
-      </c>
-      <c r="D4" t="n">
-        <v>640.5848321000387</v>
-      </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996099</v>
+        <v>532.1234559996095</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000386</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996096</v>
+        <v>532.1234559996095</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996099</v>
+        <v>532.1234559996095</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,7 +27379,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>292.3234674802255</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27388,10 +27388,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>343.5574136868026</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27442,10 +27442,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27534,28 +27534,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551289</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,28 +27582,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>25.68993712827333</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>40.18789243035491</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27616,10 +27616,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27628,13 +27628,13 @@
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>94.00277236057096</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>9.001083493736743</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,16 +27664,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -27771,10 +27771,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27783,13 +27783,13 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I7" t="n">
         <v>104.7965952039006</v>
@@ -27819,7 +27819,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.5575724195736</v>
+        <v>4.581234460823779</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -27828,16 +27828,16 @@
         <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>170.7168230996513</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27850,19 +27850,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27871,7 +27871,7 @@
         <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,22 +27901,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>108.4279735176733</v>
       </c>
       <c r="U8" t="n">
         <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>173.0313165627905</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28008,25 +28008,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>115.3258519193763</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>104.7965952039006</v>
@@ -28062,16 +28062,16 @@
         <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>67.83496950366336</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -28090,7 +28090,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>-3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -28102,7 +28102,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -28260,7 +28260,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.319714707885093e-12</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -28813,7 +28813,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -30040,7 +30040,7 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -30277,7 +30277,7 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -31039,46 +31039,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I2" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T2" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U2" t="n">
         <v>0.3004027793744847</v>
@@ -31121,10 +31121,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31133,34 +31133,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R3" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31203,7 +31203,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31218,10 +31218,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31230,16 +31230,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,46 +31276,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I5" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T5" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U5" t="n">
         <v>0.3004027793744847</v>
@@ -31358,10 +31358,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
@@ -31370,34 +31370,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R6" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31440,7 +31440,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
@@ -31455,10 +31455,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P7" t="n">
         <v>203.7180217169137</v>
@@ -31467,16 +31467,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31835,34 +31835,34 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>734.267838362266</v>
       </c>
       <c r="N12" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>163.1438255932938</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
         <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742439</v>
@@ -32078,16 +32078,16 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>362.1804684129204</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>526.2989357561996</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
         <v>700.0808204437244</v>
@@ -32099,7 +32099,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742439</v>
@@ -32309,10 +32309,10 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
         <v>475.1391886422586</v>
@@ -32321,22 +32321,22 @@
         <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>398.7616643558013</v>
+        <v>454.5879800486393</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742439</v>
@@ -32546,19 +32546,19 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
         <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>240.4469701760385</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071786</v>
@@ -32567,10 +32567,10 @@
         <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>448.9178583921318</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>182.6892564418561</v>
@@ -32786,19 +32786,19 @@
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>184.4971006716333</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
         <v>700.0808204437244</v>
@@ -32807,10 +32807,10 @@
         <v>561.8765786214699</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>171.4104471179097</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742439</v>
@@ -33020,7 +33020,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33029,25 +33029,25 @@
         <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>508.3747716989726</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742439</v>
@@ -33266,25 +33266,25 @@
         <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>270.97169333569</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742439</v>
@@ -33409,43 +33409,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>162.5000833330458</v>
+        <v>194.5189324111248</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162548</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,13 +33725,13 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
@@ -33740,34 +33740,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>581.3243739860829</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>530.4152909475304</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R36" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33895,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,10 +33962,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
@@ -33974,37 +33974,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>734.2678383622665</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>172.8142548092788</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34132,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162548</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>233.3139244897919</v>
       </c>
       <c r="M42" t="n">
-        <v>581.3243739860829</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34369,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236497</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,10 +34436,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
@@ -34451,34 +34451,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>581.3243739860829</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>699.0496615458086</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P2" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,31 +34775,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091739</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K3" t="n">
-        <v>186.5874962434848</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378501</v>
+        <v>412.0358695391846</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N3" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O3" t="n">
-        <v>336.3802954844301</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P3" t="n">
-        <v>568.1422977634694</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q3" t="n">
-        <v>326.5580100667036</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>24.58388860977094</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K4" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M4" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P5" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,31 +35012,31 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>189.0712562313262</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K6" t="n">
         <v>186.5874962434848</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378501</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M6" t="n">
-        <v>640.5848321000385</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N6" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O6" t="n">
-        <v>335.424681996123</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="P6" t="n">
-        <v>249.6795291235322</v>
+        <v>347.9240135433002</v>
       </c>
       <c r="Q6" t="n">
-        <v>221.6479684267698</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R6" t="n">
-        <v>24.58388860977091</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K7" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L7" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M7" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O7" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P7" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35249,10 +35249,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>189.0712562313262</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K9" t="n">
-        <v>379.9148430313198</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L9" t="n">
         <v>297.6803606378501</v>
@@ -35261,16 +35261,16 @@
         <v>366.9313322820404</v>
       </c>
       <c r="N9" t="n">
-        <v>391.1970995928739</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="O9" t="n">
         <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235322</v>
+        <v>529.7874664804601</v>
       </c>
       <c r="Q9" t="n">
-        <v>326.5580100667036</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35419,7 +35419,7 @@
         <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193515</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
         <v>696.4886512243162</v>
@@ -35483,34 +35483,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>592.1338044402477</v>
       </c>
       <c r="N12" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>20.54758114884936</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
         <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35586,7 +35586,7 @@
         <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998967</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35726,16 +35726,16 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>224.3390294385614</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>394.9572236728663</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
         <v>557.48457599928</v>
@@ -35747,7 +35747,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35896,7 +35896,7 @@
         <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243148</v>
       </c>
       <c r="P17" t="n">
         <v>559.5874541683813</v>
@@ -35957,10 +35957,10 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>337.2977496678996</v>
@@ -35969,22 +35969,22 @@
         <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>256.1654199113569</v>
+        <v>311.9917356041949</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36127,7 +36127,7 @@
         <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902934</v>
       </c>
       <c r="N20" t="n">
         <v>751.8584478193518</v>
@@ -36142,7 +36142,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,19 +36194,19 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>101.8925903961643</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238454</v>
@@ -36215,10 +36215,10 @@
         <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>314.9434509778015</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>37.00975247789214</v>
@@ -36285,7 +36285,7 @@
         <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010435</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
@@ -36367,7 +36367,7 @@
         <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193505</v>
       </c>
       <c r="O23" t="n">
         <v>696.4886512243162</v>
@@ -36434,19 +36434,19 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>57.65947400496659</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>557.48457599928</v>
@@ -36455,10 +36455,10 @@
         <v>427.9021712071396</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>25.73094315394571</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36601,7 +36601,7 @@
         <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902934</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
         <v>751.8584478193518</v>
@@ -36668,7 +36668,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36677,25 +36677,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>369.8203919190984</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>256.1654199113569</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36853,7 +36853,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36914,25 +36914,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>132.4173135558158</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>256.1654199113569</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,34 +37142,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>23.94570355317166</v>
+        <v>55.96455263125056</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462675</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,7 +37379,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37388,25 +37388,25 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
-        <v>439.1903400640646</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>399.073578864197</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924719</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37622,28 +37622,28 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
-        <v>592.1338044402481</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>27.13475084531481</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462675</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902952</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>94.75954470991771</v>
       </c>
       <c r="M42" t="n">
-        <v>439.1903400640646</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683802</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,7 +38090,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38099,25 +38099,25 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
-        <v>439.1903400640646</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>556.4534171013642</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
